--- a/CAD1 - nazewnictwo plików.xlsx
+++ b/CAD1 - nazewnictwo plików.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2bde0611fc6a1fbf/Pulpit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gkami\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="79" documentId="11_AD4DADEC636C813AC809E403F8DD6B645BDEDD97" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4ED97285-F8E8-4B04-933D-BD9857EDB761}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA725DA-96E2-4BC8-BFEC-CCAEA7B6334D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="51">
   <si>
     <t>l.p.</t>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t>Szafa 2A</t>
+  </si>
+  <si>
+    <t>S235JR</t>
   </si>
 </sst>
 </file>
@@ -265,10 +268,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -537,7 +536,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -594,7 +593,9 @@
       <c r="E2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="G2" s="2">
         <v>1</v>
       </c>
@@ -616,7 +617,9 @@
       <c r="E3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="G3" s="2">
         <v>1</v>
       </c>
